--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\posApp\backend\database\seeders\Catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\restaurante-hotel\backend\database\seeders\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -240,6 +240,72 @@
   </si>
   <si>
     <t>compras_ventas</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>food-fork-drink</t>
+  </si>
+  <si>
+    <t>Catálogos</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>Estado orden</t>
+  </si>
+  <si>
+    <t>estado_orden</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>Tipo orden</t>
+  </si>
+  <si>
+    <t>tipo_orden</t>
+  </si>
+  <si>
+    <t>Categoría comida</t>
+  </si>
+  <si>
+    <t>categoria_comida</t>
+  </si>
+  <si>
+    <t>mesero</t>
+  </si>
+  <si>
+    <t>notebook-edit</t>
+  </si>
+  <si>
+    <t>Mesero</t>
+  </si>
+  <si>
+    <t>Ordenes</t>
+  </si>
+  <si>
+    <t>ordenes</t>
+  </si>
+  <si>
+    <t>food-outline</t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
+    <t>countertop</t>
+  </si>
+  <si>
+    <t>file-chart</t>
+  </si>
+  <si>
+    <t>productos_restaurante</t>
   </si>
 </sst>
 </file>
@@ -575,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,6 +1189,203 @@
         <v>54</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -306,13 +306,19 @@
   </si>
   <si>
     <t>productos_restaurante</t>
+  </si>
+  <si>
+    <t>Mesas</t>
+  </si>
+  <si>
+    <t>mesas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +329,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +375,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,10 +1245,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -1248,10 +1265,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -1268,10 +1285,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -1288,10 +1305,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -1308,10 +1325,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -1320,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>54</v>
@@ -1328,10 +1345,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -1340,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>54</v>
@@ -1348,10 +1365,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -1360,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>54</v>
@@ -1368,10 +1385,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -1380,9 +1397,29 @@
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\restaurante-hotel\backend\database\seeders\Catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hotel_restuarante\backend\database\seeders\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -32,9 +32,6 @@
     <t>developer_board</t>
   </si>
   <si>
-    <t>verified_user</t>
-  </si>
-  <si>
     <t>name (0)</t>
   </si>
   <si>
@@ -56,144 +53,30 @@
     <t>Cátalogo General</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>supervisor_account</t>
-  </si>
-  <si>
-    <t>loyalty</t>
-  </si>
-  <si>
-    <t>label_important</t>
-  </si>
-  <si>
     <t>view_module</t>
   </si>
   <si>
-    <t>view_carousel</t>
-  </si>
-  <si>
-    <t>bookmark</t>
-  </si>
-  <si>
-    <t>GERENTE</t>
-  </si>
-  <si>
-    <t>VENDEDOR</t>
-  </si>
-  <si>
-    <t>Devoluciones</t>
-  </si>
-  <si>
-    <t>devoluciones</t>
-  </si>
-  <si>
     <t>usuarios</t>
   </si>
   <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
     <t>Productos</t>
   </si>
   <si>
-    <t>productos</t>
-  </si>
-  <si>
     <t>Usuarios</t>
   </si>
   <si>
-    <t>proveedores</t>
-  </si>
-  <si>
     <t>Reportes</t>
   </si>
   <si>
-    <t>ventas_generales</t>
-  </si>
-  <si>
-    <t>Productos más vendidos</t>
-  </si>
-  <si>
-    <t>productos_mas_vendidos</t>
-  </si>
-  <si>
-    <t>Productos próximo a vencer</t>
-  </si>
-  <si>
-    <t>productos_proximos_vencer</t>
-  </si>
-  <si>
-    <t>Stock por categoría y producto</t>
-  </si>
-  <si>
-    <t>stock_categoria_productos</t>
-  </si>
-  <si>
-    <t>Ventas diarias</t>
-  </si>
-  <si>
-    <t>ventas_diarias</t>
-  </si>
-  <si>
-    <t>Ganancias diarias y mensuales</t>
-  </si>
-  <si>
-    <t>ganancias_diarias_mensuales</t>
-  </si>
-  <si>
-    <t>Movimiento en bodegas</t>
-  </si>
-  <si>
-    <t>movimiento_bodegas</t>
-  </si>
-  <si>
-    <t>Log de accesos</t>
-  </si>
-  <si>
-    <t>log_accessos</t>
-  </si>
-  <si>
-    <t>Bodegas</t>
-  </si>
-  <si>
-    <t>bodegas</t>
-  </si>
-  <si>
-    <t>Movimientos</t>
-  </si>
-  <si>
-    <t>movimientos</t>
-  </si>
-  <si>
     <t>Ayuda</t>
   </si>
   <si>
     <t>ayuda</t>
   </si>
   <si>
-    <t>Categorías</t>
-  </si>
-  <si>
-    <t>categorias</t>
-  </si>
-  <si>
-    <t>Marcas</t>
-  </si>
-  <si>
-    <t>marcas</t>
-  </si>
-  <si>
-    <t>TODOS</t>
-  </si>
-  <si>
     <t>ADMIN_GERENTE</t>
   </si>
   <si>
-    <t>Ventas generales</t>
-  </si>
-  <si>
     <t>control_camera</t>
   </si>
   <si>
@@ -215,33 +98,6 @@
     <t>presentaciones</t>
   </si>
   <si>
-    <t>Traslados de bodega</t>
-  </si>
-  <si>
-    <t>traslado_bodega</t>
-  </si>
-  <si>
-    <t>Compra y ventas</t>
-  </si>
-  <si>
-    <t>Registrar venta</t>
-  </si>
-  <si>
-    <t>registrar_venta</t>
-  </si>
-  <si>
-    <t>Registrar compra</t>
-  </si>
-  <si>
-    <t>registrar_compra</t>
-  </si>
-  <si>
-    <t>Compras y ventas</t>
-  </si>
-  <si>
-    <t>compras_ventas</t>
-  </si>
-  <si>
     <t>Restaurante</t>
   </si>
   <si>
@@ -312,13 +168,40 @@
   </si>
   <si>
     <t>mesas</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Tipo cama</t>
+  </si>
+  <si>
+    <t>tipo_cama</t>
+  </si>
+  <si>
+    <t>Habitación</t>
+  </si>
+  <si>
+    <t>habitacion</t>
+  </si>
+  <si>
+    <t>Precio Habitación</t>
+  </si>
+  <si>
+    <t>habitacion_precio</t>
+  </si>
+  <si>
+    <t>Fotografía Habitación</t>
+  </si>
+  <si>
+    <t>habitacion_fotografia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,14 +212,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -375,7 +250,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,22 +553,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -701,24 +576,24 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -727,700 +602,384 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
+      <c r="E18" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Usuarios</t>
   </si>
   <si>
-    <t>Reportes</t>
-  </si>
-  <si>
     <t>Ayuda</t>
   </si>
   <si>
@@ -101,24 +98,12 @@
     <t>Restaurante</t>
   </si>
   <si>
-    <t>food-fork-drink</t>
-  </si>
-  <si>
-    <t>Catálogos</t>
-  </si>
-  <si>
-    <t>cards</t>
-  </si>
-  <si>
     <t>Estado orden</t>
   </si>
   <si>
     <t>estado_orden</t>
   </si>
   <si>
-    <t>circle</t>
-  </si>
-  <si>
     <t>Tipo orden</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>mesero</t>
   </si>
   <si>
-    <t>notebook-edit</t>
-  </si>
-  <si>
     <t>Mesero</t>
   </si>
   <si>
@@ -146,21 +128,12 @@
     <t>ordenes</t>
   </si>
   <si>
-    <t>food-outline</t>
-  </si>
-  <si>
     <t>Cocina</t>
   </si>
   <si>
     <t>cocina</t>
   </si>
   <si>
-    <t>countertop</t>
-  </si>
-  <si>
-    <t>file-chart</t>
-  </si>
-  <si>
     <t>productos_restaurante</t>
   </si>
   <si>
@@ -185,23 +158,65 @@
     <t>habitacion</t>
   </si>
   <si>
-    <t>Precio Habitación</t>
-  </si>
-  <si>
-    <t>habitacion_precio</t>
-  </si>
-  <si>
-    <t>Fotografía Habitación</t>
-  </si>
-  <si>
-    <t>habitacion_fotografia</t>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Kardex</t>
+  </si>
+  <si>
+    <t>insumo</t>
+  </si>
+  <si>
+    <t>kardex</t>
+  </si>
+  <si>
+    <t>menu_book</t>
+  </si>
+  <si>
+    <t>drag_indicator</t>
+  </si>
+  <si>
+    <t>list_alt</t>
+  </si>
+  <si>
+    <t>live_help</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>emoji_emotions</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>king_bed</t>
+  </si>
+  <si>
+    <t>meeting_room</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +231,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,13 +556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -551,7 +574,7 @@
     <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -574,7 +597,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -585,15 +608,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -602,38 +625,38 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -642,10 +665,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -659,15 +682,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -679,12 +702,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -692,294 +715,268 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -210,6 +210,63 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Reservación</t>
+  </si>
+  <si>
+    <t>assignment_return</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>registrar</t>
+  </si>
+  <si>
+    <t>rate_review</t>
+  </si>
+  <si>
+    <t>Reservaciones</t>
+  </si>
+  <si>
+    <t>reservacion</t>
+  </si>
+  <si>
+    <t>room_service</t>
+  </si>
+  <si>
+    <t>Check In</t>
+  </si>
+  <si>
+    <t>playlist_add_check</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>check_in</t>
+  </si>
+  <si>
+    <t>check_out</t>
+  </si>
+  <si>
+    <t>pago</t>
+  </si>
+  <si>
+    <t>reservaciones</t>
+  </si>
+  <si>
+    <t>payment</t>
   </si>
 </sst>
 </file>
@@ -556,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -979,6 +1036,146 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hotel_restuarante\backend\database\seeders\Catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\restaurante-hotel\backend\database\seeders\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -267,13 +267,16 @@
   </si>
   <si>
     <t>payment</t>
+  </si>
+  <si>
+    <t>Administrar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +293,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -315,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +340,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -781,10 +793,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -793,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -801,19 +813,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>50</v>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -821,19 +833,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -841,19 +853,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -861,19 +873,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -881,19 +893,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -901,10 +913,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -913,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -921,10 +933,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -933,44 +945,44 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -978,10 +990,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -990,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -998,10 +1010,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1010,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1018,10 +1030,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1030,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1038,10 +1050,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -1050,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1058,19 +1070,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1078,10 +1090,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -1090,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
@@ -1098,10 +1110,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -1110,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
@@ -1118,10 +1130,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -1130,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1138,10 +1150,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -1150,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1158,10 +1170,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1169,10 +1181,30 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -173,21 +173,6 @@
     <t>menu_book</t>
   </si>
   <si>
-    <t>drag_indicator</t>
-  </si>
-  <si>
-    <t>list_alt</t>
-  </si>
-  <si>
-    <t>live_help</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
@@ -270,13 +255,16 @@
   </si>
   <si>
     <t>Administrar</t>
+  </si>
+  <si>
+    <t>panorama_fish_eye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,12 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -324,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,9 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +607,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -793,7 +772,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -819,13 +798,13 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -839,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -859,13 +838,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -879,13 +858,13 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -899,13 +878,13 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -925,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -945,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -965,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
@@ -982,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1002,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1022,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1042,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1062,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1070,7 +1049,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1082,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1090,19 +1069,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
@@ -1110,19 +1089,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
@@ -1130,19 +1109,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1150,19 +1129,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1170,19 +1149,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1190,19 +1169,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t>panorama_fish_eye</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>local_atm</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>inventario</t>
   </si>
 </sst>
 </file>
@@ -604,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -912,10 +930,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -924,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -932,10 +950,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -944,84 +962,84 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>40</v>
+      <c r="A19" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>42</v>
+      <c r="A20" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1029,10 +1047,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -1041,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1049,10 +1067,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1061,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1069,19 +1087,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
@@ -1089,19 +1107,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
@@ -1109,19 +1127,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1129,10 +1147,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1141,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1149,10 +1167,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -1161,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1169,10 +1187,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1180,10 +1198,70 @@
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\restaurante-hotel\backend\database\seeders\Catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hotel_restuarante\backend\database\seeders\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -276,6 +276,78 @@
   </si>
   <si>
     <t>inventario</t>
+  </si>
+  <si>
+    <t>Caja Chica</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>account_box</t>
+  </si>
+  <si>
+    <t>people_alt</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>proveedores</t>
+  </si>
+  <si>
+    <t>lock_open</t>
+  </si>
+  <si>
+    <t>Bitácora</t>
+  </si>
+  <si>
+    <t>bitacora</t>
+  </si>
+  <si>
+    <t>bug_report</t>
+  </si>
+  <si>
+    <t>table_chart</t>
+  </si>
+  <si>
+    <t>reportes</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>dashboard_hotel</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>empleados</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>Apertura de caja</t>
+  </si>
+  <si>
+    <t>apertura_caja_hotel</t>
+  </si>
+  <si>
+    <t>caja_chica_hotel</t>
+  </si>
+  <si>
+    <t>Cierre de caja</t>
+  </si>
+  <si>
+    <t>cierre_caja_hotel</t>
   </si>
 </sst>
 </file>
@@ -622,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -663,35 +735,38 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -699,19 +774,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="E4" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -719,16 +791,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="E5" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -736,7 +808,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -744,8 +816,8 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>1</v>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -753,19 +825,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -773,16 +845,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -790,18 +862,15 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -810,19 +879,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>77</v>
+      <c r="E10" t="s">
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -830,19 +899,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -850,19 +916,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -870,10 +936,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -890,10 +956,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
@@ -910,19 +976,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -930,19 +996,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -950,19 +1016,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -970,10 +1036,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -982,124 +1048,124 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>79</v>
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>82</v>
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>40</v>
+      <c r="A22" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>42</v>
+      <c r="A23" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
@@ -1107,10 +1173,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1119,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
@@ -1127,10 +1193,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1139,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1147,19 +1213,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1167,19 +1233,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1187,19 +1253,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1207,19 +1273,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1227,10 +1293,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -1239,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1247,10 +1313,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -1258,10 +1324,187 @@
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hotel_restuarante\backend\database\seeders\Catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\restaurante-hotel\backend\database\seeders\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>cierre_caja_hotel</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>ventas-restaurante</t>
   </si>
 </sst>
 </file>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1155,37 +1161,37 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>39</v>
+      <c r="A24" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
@@ -1193,10 +1199,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1205,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1213,10 +1219,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1225,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1233,10 +1239,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1245,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1253,10 +1259,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1265,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1273,10 +1279,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1285,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1293,19 +1299,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1313,10 +1319,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -1325,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -1333,10 +1339,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -1345,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -1353,10 +1359,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -1365,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1373,10 +1379,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -1385,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -1393,10 +1399,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -1404,8 +1410,8 @@
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>70</v>
+      <c r="E36" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -1413,19 +1419,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>91</v>
+      <c r="E37" t="s">
+        <v>70</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -1433,16 +1439,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>91</v>
@@ -1453,10 +1459,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1473,19 +1479,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -1493,18 +1499,38 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -266,18 +266,9 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>caja</t>
-  </si>
-  <si>
     <t>local_atm</t>
   </si>
   <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>inventario</t>
-  </si>
-  <si>
     <t>Caja Chica</t>
   </si>
   <si>
@@ -350,10 +341,28 @@
     <t>cierre_caja_hotel</t>
   </si>
   <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>ventas-restaurante</t>
+    <t>reporte-restaurante-caja</t>
+  </si>
+  <si>
+    <t>reporte-restaurante-inventario</t>
+  </si>
+  <si>
+    <t>reporte-restaurante-venta</t>
+  </si>
+  <si>
+    <t>restaurante-caja</t>
+  </si>
+  <si>
+    <t>Reporte de caja</t>
+  </si>
+  <si>
+    <t>Reporte de inventario</t>
+  </si>
+  <si>
+    <t>Reporte de ventas</t>
+  </si>
+  <si>
+    <t>monetization_on</t>
   </si>
 </sst>
 </file>
@@ -700,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -743,16 +752,16 @@
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -780,16 +789,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -797,16 +806,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1102,10 +1111,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1114,38 +1123,38 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>79</v>
+      <c r="A22" t="s">
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
@@ -1154,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -1162,10 +1171,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -1181,37 +1190,37 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>39</v>
+      <c r="A25" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1219,10 +1228,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1231,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1239,10 +1248,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1251,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1259,10 +1268,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1271,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1279,10 +1288,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1291,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1299,10 +1308,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -1311,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1319,19 +1328,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -1339,10 +1348,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -1351,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -1359,10 +1368,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -1371,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1379,10 +1388,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -1391,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -1399,10 +1408,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -1411,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -1419,10 +1428,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1430,8 +1439,8 @@
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>70</v>
+      <c r="E37" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -1439,19 +1448,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>91</v>
+      <c r="E38" t="s">
+        <v>70</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -1459,19 +1468,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -1479,10 +1488,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -1491,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -1499,19 +1508,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -1519,18 +1528,38 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
         <v>93</v>
       </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
       <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>local_atm</t>
-  </si>
-  <si>
     <t>Caja Chica</t>
   </si>
   <si>
@@ -341,18 +338,6 @@
     <t>cierre_caja_hotel</t>
   </si>
   <si>
-    <t>reporte-restaurante-caja</t>
-  </si>
-  <si>
-    <t>reporte-restaurante-inventario</t>
-  </si>
-  <si>
-    <t>reporte-restaurante-venta</t>
-  </si>
-  <si>
-    <t>restaurante-caja</t>
-  </si>
-  <si>
     <t>Reporte de caja</t>
   </si>
   <si>
@@ -363,6 +348,18 @@
   </si>
   <si>
     <t>monetization_on</t>
+  </si>
+  <si>
+    <t>restaurante_caja</t>
+  </si>
+  <si>
+    <t>reporte_restaurante_caja</t>
+  </si>
+  <si>
+    <t>reporte_restaurante_inventario</t>
+  </si>
+  <si>
+    <t>reporte_restaurante_venta</t>
   </si>
 </sst>
 </file>
@@ -711,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -752,16 +749,16 @@
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -789,16 +786,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -806,16 +803,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1123,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1151,10 +1148,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
         <v>109</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
@@ -1163,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -1183,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>15</v>
@@ -1191,10 +1188,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>78</v>
@@ -1203,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>15</v>
@@ -1228,10 +1225,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1240,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1468,10 +1465,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1480,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -1488,10 +1485,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
         <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -1508,10 +1505,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -1520,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -1531,7 +1528,7 @@
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -1540,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -1548,16 +1545,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>reporte_restaurante_venta</t>
+  </si>
+  <si>
+    <t>Apertura caja restaurante</t>
+  </si>
+  <si>
+    <t>apertura_caja_restaurante</t>
   </si>
 </sst>
 </file>
@@ -706,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1207,37 +1213,37 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>39</v>
+      <c r="A26" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1245,10 +1251,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1257,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1265,10 +1271,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1277,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1285,10 +1291,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1297,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1305,10 +1311,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -1317,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1325,10 +1331,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1337,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -1345,19 +1351,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -1365,10 +1371,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -1377,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1385,10 +1391,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -1397,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -1405,10 +1411,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -1417,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -1425,10 +1431,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1437,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -1445,10 +1451,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
@@ -1456,8 +1462,8 @@
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>70</v>
+      <c r="E38" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>87</v>
+      <c r="E39" t="s">
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -1485,16 +1491,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>87</v>
@@ -1505,10 +1511,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -1525,19 +1531,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -1545,18 +1551,38 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>#</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>apertura_caja_restaurante</t>
+  </si>
+  <si>
+    <t>Reporte de gastos</t>
+  </si>
+  <si>
+    <t>reporte_restaurante_gastos</t>
   </si>
 </sst>
 </file>
@@ -712,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1214,56 +1220,56 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1271,10 +1277,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1283,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1291,10 +1297,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1303,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1311,10 +1317,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -1323,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1331,10 +1337,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1343,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -1351,10 +1357,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -1363,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -1371,19 +1377,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1391,10 +1397,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -1403,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -1411,10 +1417,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -1431,10 +1437,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1443,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -1451,10 +1457,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
@@ -1463,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -1471,10 +1477,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
@@ -1482,8 +1488,8 @@
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>70</v>
+      <c r="E39" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>87</v>
+      <c r="E40" t="s">
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -1511,16 +1517,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>87</v>
@@ -1531,10 +1537,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
@@ -1571,18 +1577,38 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/database/seeders/Catalogos/RolMenu.xlsx
+++ b/backend/database/seeders/Catalogos/RolMenu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\restaurante-hotel\backend\database\seeders\Catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hotel_restuarante\backend\database\seeders\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -50,12 +50,6 @@
     <t>COMBINACION (5)</t>
   </si>
   <si>
-    <t>Cátalogo General</t>
-  </si>
-  <si>
-    <t>view_module</t>
-  </si>
-  <si>
     <t>usuarios</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
     <t>Usuarios</t>
   </si>
   <si>
-    <t>Ayuda</t>
-  </si>
-  <si>
-    <t>ayuda</t>
-  </si>
-  <si>
     <t>ADMIN_GERENTE</t>
   </si>
   <si>
@@ -89,12 +77,6 @@
     <t>account_circle</t>
   </si>
   <si>
-    <t>Presentaciones</t>
-  </si>
-  <si>
-    <t>presentaciones</t>
-  </si>
-  <si>
     <t>Restaurante</t>
   </si>
   <si>
@@ -372,6 +354,12 @@
   </si>
   <si>
     <t>reporte_restaurante_gastos</t>
+  </si>
+  <si>
+    <t>Cierre caja restaurante</t>
+  </si>
+  <si>
+    <t>cierre_caja_restaurante</t>
   </si>
 </sst>
 </file>
@@ -718,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -761,19 +749,19 @@
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -781,58 +769,58 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -841,181 +829,187 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>1</v>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1026,373 +1020,373 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>32</v>
+      <c r="A20" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>79</v>
+      <c r="A21" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>78</v>
+      <c r="A22" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>114</v>
+      <c r="A26" t="s">
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>112</v>
+      <c r="A27" t="s">
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1400,216 +1394,176 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>51</v>
+      <c r="E38" t="s">
+        <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
